--- a/biology/Médecine/Incapacité_subtile/Incapacité_subtile.xlsx
+++ b/biology/Médecine/Incapacité_subtile/Incapacité_subtile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incapacit%C3%A9_subtile</t>
+          <t>Incapacité_subtile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'incapacité subtile est un type d'incapacité conduisant à une perte de vigilance, pouvant aboutir à une ou plusieurs erreurs de jugement. Le terme est utilisé en particulier dans le domaine de pilotage automobile ou aéronautique.
-Le Dictionnaire médical de l'Académie de Médecine détermine que l'incapacité subtile est « une cause relativement fréquente d'accident »[1], et qu'elle peut être due à des toxiques (alcool, drogue, psychotrope, ...) ou être d'origine psychique (fatigue extrême)[2]. Elle se manifeste par une perte de conscience partielle[3]. Elle peut très bien passer inaperçue à l'entourage de la personne qui en est victime, par exemple à un copilote. 
-Un document du Bureau d'enquête et d'analyses (BEA) l'indique comme pouvant être provoqué par des troubles digestifs ou une hypoglycémie[4].
-L'incapacité subtile a été évoquée comme étant une des causes probables de catastrophes aériennes, comme celles du vol 3407 Continental Airlines en février 2009 et du Vol 409 Ethiopian Airlines en janvier 2010[5].
+Le Dictionnaire médical de l'Académie de Médecine détermine que l'incapacité subtile est « une cause relativement fréquente d'accident », et qu'elle peut être due à des toxiques (alcool, drogue, psychotrope, ...) ou être d'origine psychique (fatigue extrême). Elle se manifeste par une perte de conscience partielle. Elle peut très bien passer inaperçue à l'entourage de la personne qui en est victime, par exemple à un copilote. 
+Un document du Bureau d'enquête et d'analyses (BEA) l'indique comme pouvant être provoqué par des troubles digestifs ou une hypoglycémie.
+L'incapacité subtile a été évoquée comme étant une des causes probables de catastrophes aériennes, comme celles du vol 3407 Continental Airlines en février 2009 et du Vol 409 Ethiopian Airlines en janvier 2010.
 </t>
         </is>
       </c>
